--- a/src/models/baselines/RF/results/synthetic/topology/tv1/metrics.xlsx
+++ b/src/models/baselines/RF/results/synthetic/topology/tv1/metrics.xlsx
@@ -456,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4343434343434344</v>
+        <v>0.6868686868686869</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4343434343434344</v>
+        <v>0.6868686868686869</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6281374349556169</v>
+        <v>0.852502295684114</v>
       </c>
     </row>
     <row r="3">
@@ -470,13 +470,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4141414141414141</v>
+        <v>0.6868686868686869</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4141414141414141</v>
+        <v>0.6868686868686869</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6271043771043772</v>
+        <v>0.8602310988674624</v>
       </c>
     </row>
     <row r="4">
@@ -484,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.7373737373737373</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.7373737373737375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6113406795224977</v>
+        <v>0.899946434037343</v>
       </c>
     </row>
     <row r="5">
@@ -498,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5101010101010101</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5101010101010101</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6485690235690237</v>
+        <v>0.9050734618916438</v>
       </c>
     </row>
     <row r="6">
@@ -512,13 +512,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6303183348637894</v>
+        <v>0.8942072237526782</v>
       </c>
     </row>
     <row r="7">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.6919191919191919</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.6919191919191919</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6137511478420569</v>
+        <v>0.8797252831343741</v>
       </c>
     </row>
     <row r="8">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4646464646464646</v>
+        <v>0.6919191919191919</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4646464646464646</v>
+        <v>0.6919191919191919</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6664753596571779</v>
+        <v>0.8639424548515459</v>
       </c>
     </row>
     <row r="9">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6268748086929906</v>
+        <v>0.8863253749617387</v>
       </c>
     </row>
     <row r="10">
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4747474747474748</v>
+        <v>0.7474747474747475</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4747474747474748</v>
+        <v>0.7474747474747475</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6472298745026017</v>
+        <v>0.9124005203550659</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4747474747474748</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4747474747474748</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5892255892255892</v>
+        <v>0.8653198653198654</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4601010101010101</v>
+        <v>0.7146464646464645</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4601010101010101</v>
+        <v>0.7146464646464646</v>
       </c>
       <c r="D2" t="n">
-        <v>0.628902662993572</v>
+        <v>0.8819674012855832</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02666636907632473</v>
+        <v>0.03133755971209812</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02666636907632473</v>
+        <v>0.03133755971209814</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02174743289618958</v>
+        <v>0.02081623595152667</v>
       </c>
     </row>
   </sheetData>
